--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -195,27 +195,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香油(其它一)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(其它二)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(其它三)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(其它四)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(其它五)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(其它六)</t>
+    <t>香油(牛軋糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(農民曆廣告)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(衣服)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(薦拔祖先)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(冤親債主)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(嬰靈)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,7 +907,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,6 @@
       <c r="E30" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF54" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -167,55 +167,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>香油(媽祖聖誕典禮)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契子會(新入會)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姻緣燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽祖殿燈籠福燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(專案專款)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(祈願卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(牛軋糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(衣服)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(薦拔祖先)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(冤親債主)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(嬰靈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>保運</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香油(媽祖聖誕典禮)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契子會(新入會)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姻緣燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>媽祖殿燈籠福燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(專案專款)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(祈願卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(牛軋糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(農民曆廣告)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(衣服)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(薦拔祖先)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(冤親債主)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(嬰靈)</t>
+    <t>香油(屋頂整修費)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,7 +907,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1059,7 @@
     <row r="14" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="6" t="s">
@@ -1070,7 +1070,7 @@
     <row r="15" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="20" t="s">
@@ -1092,7 +1092,7 @@
     <row r="17" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="22" t="s">
@@ -1114,11 +1114,11 @@
     <row r="19" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="18"/>
     </row>
@@ -1129,40 +1129,40 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="18"/>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E24" s="18"/>
     </row>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>民國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>香油(屋頂整修費)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(祈福玉珮)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1168,86 +1172,95 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
+      <c r="B24" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="D24" s="25"/>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="6" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="44"/>
       <c r="E28" s="45"/>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="29" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -961,7 +961,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -970,7 +970,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="47"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>19</v>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>統  計  表</t>
   </si>
@@ -133,43 +133,52 @@
     <t>香油(衣服)</t>
   </si>
   <si>
+    <t>香油(冤親債主)</t>
+  </si>
+  <si>
+    <t>香油(嬰靈)</t>
+  </si>
+  <si>
+    <t>香油(祈福玉珮)</t>
+  </si>
+  <si>
+    <t>租金</t>
+  </si>
+  <si>
+    <t>保運</t>
+  </si>
+  <si>
+    <t>金牌</t>
+  </si>
+  <si>
+    <t>白米</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>負責人</t>
+  </si>
+  <si>
+    <t>收據編號</t>
+  </si>
+  <si>
+    <t>簽章</t>
+  </si>
+  <si>
+    <t>列印時間：</t>
+  </si>
+  <si>
     <t>香油(薦拔祖先)</t>
-  </si>
-  <si>
-    <t>香油(冤親債主)</t>
-  </si>
-  <si>
-    <t>香油(嬰靈)</t>
-  </si>
-  <si>
-    <t>香油(祈福玉珮)</t>
-  </si>
-  <si>
-    <t>租金</t>
-  </si>
-  <si>
-    <t>保運</t>
-  </si>
-  <si>
-    <t>金牌</t>
-  </si>
-  <si>
-    <t>白米</t>
-  </si>
-  <si>
-    <t>合計金額</t>
-  </si>
-  <si>
-    <t>負責人</t>
-  </si>
-  <si>
-    <t>收據編號</t>
-  </si>
-  <si>
-    <t>簽章</t>
-  </si>
-  <si>
-    <t>列印時間：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(媽祖聖誕擲筊)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,108 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,23 +435,169 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +903,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -864,297 +917,327 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="23" t="s">
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="40" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B31" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
     </row>
   </sheetData>
   <sheetProtection password="F25B" sheet="1" objects="1" scenarios="1"/>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="180" windowWidth="8505" windowHeight="4440"/>
+    <workbookView xWindow="450" yWindow="225" windowWidth="8505" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="SheetPrint" sheetId="1" r:id="rId1"/>
@@ -133,12 +133,6 @@
     <t>香油(衣服)</t>
   </si>
   <si>
-    <t>香油(冤親債主)</t>
-  </si>
-  <si>
-    <t>香油(嬰靈)</t>
-  </si>
-  <si>
     <t>香油(祈福玉珮)</t>
   </si>
   <si>
@@ -167,10 +161,6 @@
   </si>
   <si>
     <t>列印時間：</t>
-  </si>
-  <si>
-    <t>香油(薦拔祖先)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>香油(媽祖聖誕擲筊)</t>
@@ -178,6 +168,18 @@
   </si>
   <si>
     <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超渡法會(冤親債主)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  超渡法會(嬰靈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超渡法會(薦拔祖先)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -426,27 +428,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
@@ -471,6 +456,138 @@
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -479,124 +596,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -917,327 +926,327 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="31" t="s">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="32" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="31" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="32" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="8" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="8" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="35" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="39" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="39" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B31" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
   </sheetData>
   <sheetProtection password="F25B" sheet="1" objects="1" scenarios="1"/>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -540,6 +540,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
@@ -594,18 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -926,12 +926,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -967,18 +967,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1155,7 +1155,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="15"/>
@@ -1166,7 +1166,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="15"/>
@@ -1206,39 +1206,39 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -171,15 +171,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超渡法會(冤親債主)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  超渡法會(嬰靈)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超渡法會(薦拔祖先)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超渡法會(冤親債主)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -526,10 +526,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -912,7 +908,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -926,12 +922,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -967,18 +963,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1156,18 +1152,18 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="28" t="s">
-        <v>50</v>
+      <c r="B23" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="15"/>
     </row>
@@ -1206,47 +1202,47 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
     </row>
   </sheetData>
   <sheetProtection password="F25B" sheet="1" objects="1" scenarios="1"/>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -130,12 +130,6 @@
     <t>香油(屋頂整修費)</t>
   </si>
   <si>
-    <t>香油(衣服)</t>
-  </si>
-  <si>
-    <t>香油(祈福玉珮)</t>
-  </si>
-  <si>
     <t>租金</t>
   </si>
   <si>
@@ -180,6 +174,14 @@
   </si>
   <si>
     <t>超渡法會(冤親債主)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(祈福玉珮)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(喜緣玉品)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +910,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -985,7 +987,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>8</v>
@@ -1148,62 +1150,62 @@
     <row r="22" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="22" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="22" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="41"/>
@@ -1212,7 +1214,7 @@
     <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="43"/>
@@ -1221,7 +1223,7 @@
     <row r="29" spans="1:5" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="43"/>
@@ -1230,7 +1232,7 @@
     <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
@@ -1238,7 +1240,7 @@
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B31" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="225" windowWidth="8505" windowHeight="4395"/>
+    <workbookView xWindow="9585" yWindow="-15" windowWidth="9615" windowHeight="7395"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetPrint" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetPrint" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>統  計  表</t>
   </si>
@@ -34,9 +34,15 @@
     <t>民國</t>
   </si>
   <si>
+    <t>108/11/14~108/11/14</t>
+  </si>
+  <si>
     <t>時間</t>
   </si>
   <si>
+    <t>01:00~24:00</t>
+  </si>
+  <si>
     <t>項目</t>
   </si>
   <si>
@@ -92,97 +98,135 @@
   </si>
   <si>
     <t>香油錢</t>
+  </si>
+  <si>
+    <t>香油(祈願卡)</t>
+  </si>
+  <si>
+    <t>斗燈(媽祖聖誕禮斗)</t>
+  </si>
+  <si>
+    <t>租金</t>
+  </si>
+  <si>
+    <t>保運</t>
+  </si>
+  <si>
+    <t>金牌</t>
+  </si>
+  <si>
+    <t>0面</t>
+  </si>
+  <si>
+    <t>白米</t>
+  </si>
+  <si>
+    <t>0斤</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>負責人</t>
+  </si>
+  <si>
+    <t>收據編號</t>
+  </si>
+  <si>
+    <t>簽章</t>
+  </si>
+  <si>
+    <t>列印時間：</t>
+  </si>
+  <si>
+    <t>2019/11/14 09:39:13</t>
+  </si>
+  <si>
+    <t>藥師佛燈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥師佛斗燈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉香殿點燈小計</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(翡翠)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(媽祖聖誕典禮)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>契子會(新入會)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>契子會(開大會)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>請送神自強活動
+(契子觀摩)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>請送神自強活動
 (信徒觀摩)</t>
-  </si>
-  <si>
-    <t>香油(祈願卡)</t>
-  </si>
-  <si>
-    <t>斗燈(媽祖聖誕禮斗)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>請送神自強活動
 (媽祖回鑾)</t>
-  </si>
-  <si>
-    <t>契子會(開大會)</t>
-  </si>
-  <si>
-    <t>契子會(新入會)</t>
-  </si>
-  <si>
-    <t>香油(媽祖聖誕典禮)</t>
-  </si>
-  <si>
-    <t>請送神自強活動
-(契子觀摩)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>香油(專案專款)</t>
-  </si>
-  <si>
-    <t>香油(牛軋糖)</t>
-  </si>
-  <si>
-    <t>香油(屋頂整修費)</t>
-  </si>
-  <si>
-    <t>租金</t>
-  </si>
-  <si>
-    <t>保運</t>
-  </si>
-  <si>
-    <t>金牌</t>
-  </si>
-  <si>
-    <t>白米</t>
-  </si>
-  <si>
-    <t>合計金額</t>
-  </si>
-  <si>
-    <t>負責人</t>
-  </si>
-  <si>
-    <t>收據編號</t>
-  </si>
-  <si>
-    <t>簽章</t>
-  </si>
-  <si>
-    <t>列印時間：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(祈福玉珮)香油(屋頂整修費)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超渡法會(薦拔祖先)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(喜緣玉品)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超渡法會(冤親債主)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超渡法會(嬰靈)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>香油(媽祖聖誕擲筊)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  超渡法會(嬰靈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超渡法會(薦拔祖先)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超渡法會(冤親債主)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(祈福玉珮)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(喜緣玉品)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉香媽祖燈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉香媽祖斗燈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉香媽祖頭燈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥師佛頭燈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -192,18 +236,55 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
       <family val="1"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
@@ -212,16 +293,9 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="14"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -232,14 +306,13 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -253,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -368,36 +441,114 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -410,9 +561,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -422,7 +571,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="71">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -458,15 +608,15 @@
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -482,59 +632,79 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -542,59 +712,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -602,8 +728,120 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -907,365 +1145,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="25" t="s">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="25" t="s">
+      <c r="C5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="24">
+        <f>SUM(C9:C15,E9:E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="51">
+        <v>0</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="51">
+        <v>0</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="58">
+        <f>SUM(C16:C18,E16:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="60">
+        <v>0</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="51">
+        <v>0</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="51">
+        <v>0</v>
+      </c>
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16" t="s">
+      <c r="E22" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="51">
+        <v>0</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="51">
+        <v>0</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="51">
+        <v>0</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="51">
+        <v>0</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="51">
+        <v>0</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51">
+        <v>0</v>
+      </c>
+      <c r="D29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16" t="s">
+      <c r="E29" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="22" t="s">
+      <c r="E30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="21" t="s">
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="25" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="44">
+        <f>C8+E8+E15+E19+SUM(C20:C29) + SUM(E20:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="26" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="25" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="26" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="37" t="s">
+      <c r="C35" s="35"/>
+      <c r="D35" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B31" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="E35" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection password="F25B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.68" bottom="0.39370078740157483" header="0.38" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.23622047244094491" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>統  計  表</t>
   </si>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>香油(祈福玉珮)香油(屋頂整修費)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>超渡法會(薦拔祖先)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -226,6 +222,14 @@
   </si>
   <si>
     <t>藥師佛頭燈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(屋頂整修費)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(祈福玉珮)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -668,6 +672,106 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
@@ -742,106 +846,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1162,12 +1166,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1203,22 +1207,22 @@
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1358,206 +1362,208 @@
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="47">
-        <v>0</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="49">
+      <c r="B16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="51">
-        <v>0</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="53">
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="51">
-        <v>0</v>
-      </c>
-      <c r="D18" s="52" t="s">
+      <c r="B18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="39">
         <f>SUM(C16:C18,E16:E18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="60">
-        <v>0</v>
-      </c>
-      <c r="D20" s="61" t="s">
+      <c r="C20" s="41">
+        <v>0</v>
+      </c>
+      <c r="D20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="51">
-        <v>0</v>
-      </c>
-      <c r="D21" s="63" t="s">
+      <c r="C21" s="32">
+        <v>0</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="51">
-        <v>0</v>
-      </c>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="32">
+        <v>0</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="51">
-        <v>0</v>
-      </c>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="32">
+        <v>0</v>
+      </c>
+      <c r="D23" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="51">
-        <v>0</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="64">
+      <c r="B24" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="32">
+        <v>0</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="51">
-        <v>0</v>
-      </c>
-      <c r="D25" s="69" t="s">
+      <c r="B25" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="51">
-        <v>0</v>
-      </c>
-      <c r="D26" s="69" t="s">
+      <c r="B26" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="51">
-        <v>0</v>
-      </c>
-      <c r="D27" s="69" t="s">
+      <c r="B27" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0</v>
+      </c>
+      <c r="D27" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="51">
-        <v>0</v>
-      </c>
-      <c r="D28" s="52" t="s">
+      <c r="B28" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51">
-        <v>0</v>
-      </c>
-      <c r="D29" s="52" t="s">
+      <c r="B29" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="45">
         <v>0</v>
       </c>
     </row>
@@ -1578,53 +1584,53 @@
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44">
+      <c r="C31" s="68"/>
+      <c r="D31" s="69">
         <f>C8+E8+E15+E19+SUM(C20:C29) + SUM(E20:E29)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="70"/>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36" t="s">
+      <c r="C35" s="60"/>
+      <c r="D35" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="36"/>
+      <c r="E35" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="SheetPrint" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>統  計  表</t>
   </si>
@@ -34,7 +34,7 @@
     <t>民國</t>
   </si>
   <si>
-    <t>108/11/14~108/11/14</t>
+    <t>108/12/16~108/12/16</t>
   </si>
   <si>
     <t>時間</t>
@@ -97,140 +97,123 @@
     <t>點燈小計</t>
   </si>
   <si>
+    <t>沉香媽祖燈</t>
+  </si>
+  <si>
+    <t>沉香媽祖頭燈</t>
+  </si>
+  <si>
+    <t>藥師佛燈</t>
+  </si>
+  <si>
+    <t>藥師佛頭燈</t>
+  </si>
+  <si>
+    <t>沉香媽祖斗燈</t>
+  </si>
+  <si>
+    <t>藥師佛斗燈</t>
+  </si>
+  <si>
+    <t>沉香殿點燈小計</t>
+  </si>
+  <si>
     <t>香油錢</t>
   </si>
   <si>
+    <t>香油(媽祖聖誕典禮)</t>
+  </si>
+  <si>
     <t>香油(祈願卡)</t>
   </si>
   <si>
-    <t>斗燈(媽祖聖誕禮斗)</t>
-  </si>
-  <si>
-    <t>租金</t>
-  </si>
-  <si>
-    <t>保運</t>
-  </si>
-  <si>
-    <t>金牌</t>
-  </si>
-  <si>
-    <t>0面</t>
-  </si>
-  <si>
-    <t>白米</t>
-  </si>
-  <si>
-    <t>0斤</t>
-  </si>
-  <si>
-    <t>合計金額</t>
-  </si>
-  <si>
-    <t>負責人</t>
-  </si>
-  <si>
-    <t>收據編號</t>
-  </si>
-  <si>
-    <t>簽章</t>
-  </si>
-  <si>
-    <t>列印時間：</t>
-  </si>
-  <si>
-    <t>2019/11/14 09:39:13</t>
-  </si>
-  <si>
-    <t>藥師佛燈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>藥師佛斗燈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉香殿點燈小計</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>香油(專案專款)</t>
+  </si>
+  <si>
+    <t>契子會(新入會)</t>
   </si>
   <si>
     <t>香油(翡翠)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(媽祖聖誕典禮)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>契子會(新入會)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>契子會(開大會)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(喜緣玉品)</t>
+  </si>
+  <si>
+    <t>超渡法會(薦拔祖先)</t>
   </si>
   <si>
     <t>請送神自強活動
 (契子觀摩)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超渡法會(冤親債主)</t>
   </si>
   <si>
     <t>請送神自強活動
 (信徒觀摩)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超渡法會(嬰靈)</t>
   </si>
   <si>
     <t>請送神自強活動
 (媽祖回鑾)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(專案專款)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超渡法會(薦拔祖先)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(喜緣玉品)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超渡法會(冤親債主)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超渡法會(嬰靈)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(媽祖聖誕擲筊)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉香媽祖燈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉香媽祖斗燈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉香媽祖頭燈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>藥師佛頭燈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>香油(祈福玉珮)</t>
+  </si>
+  <si>
+    <t>保運</t>
   </si>
   <si>
     <t>香油(屋頂整修費)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>香油(祈福玉珮)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金</t>
+  </si>
+  <si>
+    <t>金牌</t>
+  </si>
+  <si>
+    <t>0面</t>
+  </si>
+  <si>
+    <t>白米</t>
+  </si>
+  <si>
+    <t>0斤</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>負責人</t>
+  </si>
+  <si>
+    <t>呂金儒</t>
+  </si>
+  <si>
+    <t>收據編號</t>
+  </si>
+  <si>
+    <t>簽章</t>
+  </si>
+  <si>
+    <t>列印時間：</t>
+  </si>
+  <si>
+    <t>2019/12/16 08:39:30</t>
+  </si>
+  <si>
+    <t>斗燈(各殿神明年斗燈)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗燈(媽祖聖誕禮斗金)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -269,21 +252,9 @@
       <family val="4"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="標楷體"/>
       <family val="4"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -294,13 +265,27 @@
       <sz val="16"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="標楷體"/>
+      <family val="4"/>
     </font>
     <font>
       <b/>
@@ -310,13 +295,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -575,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,18 +591,6 @@
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -652,7 +619,7 @@
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -668,108 +635,112 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -846,6 +817,10 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1158,44 +1133,45 @@
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1207,430 +1183,430 @@
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="24">
-        <f>SUM(C9:C15,E9:E14)</f>
+      <c r="E15" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="30">
+      <c r="B16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="32">
-        <v>0</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="34">
+      <c r="B17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="32">
-        <v>0</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="39">
-        <f>SUM(C16:C18,E16:E18)</f>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="41">
-        <v>0</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="43">
+      <c r="B20" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="32">
+      <c r="B21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="28">
         <v>0</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="45">
+        <v>64</v>
+      </c>
+      <c r="E21" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="32">
-        <v>0</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="45">
+      <c r="B22" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="28">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="32">
-        <v>0</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="45">
+      <c r="B23" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="32">
-        <v>0</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="45">
+      <c r="B24" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="28">
+        <v>0</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="32">
-        <v>0</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="45">
+      <c r="B25" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="28">
+        <v>0</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="32">
-        <v>0</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="45">
+      <c r="B26" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="28">
+        <v>0</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="32">
-        <v>0</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="45">
+      <c r="B27" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="28">
+        <v>0</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="32">
-        <v>0</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="45">
+      <c r="B28" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="32">
-        <v>0</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="45">
+      <c r="B29" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>35</v>
+      <c r="B30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69">
+      <c r="B31" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67">
         <f>C8+E8+E15+E19+SUM(C20:C29) + SUM(E20:E29)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="70"/>
+      <c r="E31" s="68"/>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="53"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-    </row>
-    <row r="35" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="61"/>
+      <c r="B34" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+    </row>
+    <row r="35" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1648,9 +1624,9 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.23622047244094491" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.23622047244094491" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -743,6 +743,10 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
@@ -759,6 +763,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
@@ -781,46 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1142,12 +1142,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1183,22 +1183,22 @@
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1459,7 +1459,7 @@
       <c r="C24" s="28">
         <v>0</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="39">
@@ -1558,58 +1558,64 @@
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67">
+      <c r="C31" s="61"/>
+      <c r="D31" s="62">
         <f>C8+E8+E15+E19+SUM(C20:C29) + SUM(E20:E29)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="68"/>
+      <c r="E31" s="63"/>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="53"/>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
     </row>
     <row r="35" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59" t="s">
+      <c r="C35" s="68"/>
+      <c r="D35" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="59"/>
+      <c r="E35" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B1:E1"/>
@@ -1617,12 +1623,6 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/P/Work.WebApp/_Code/Excel/統計表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/統計表.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
-    <t>統  計  表</t>
-  </si>
-  <si>
     <t>董事長</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>沉香媽祖斗燈</t>
-  </si>
-  <si>
-    <t>藥師佛斗燈</t>
   </si>
   <si>
     <t>沉香殿點燈小計</t>
@@ -213,6 +207,14 @@
   </si>
   <si>
     <t>斗燈(媽祖聖誕禮斗金)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥師佛斗燈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>統  計  表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,241 +589,216 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,26 +1119,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,442 +1157,437 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="E8" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="E9" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="E10" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="E11" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="E12" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="E13" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="E14" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="41">
+        <v>0</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="E15" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
+      <c r="D16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="48">
+      <c r="E16" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="49">
+        <v>0</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="28">
-        <v>0</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="49">
+      <c r="E17" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="28">
-        <v>0</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="49">
+      <c r="B18" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="49">
+        <v>0</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="B20" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="58">
+        <v>0</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="28">
-        <v>0</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="39">
+      <c r="B21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="49">
+        <v>0</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="28">
-        <v>0</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="39">
+      <c r="B22" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="49">
+        <v>0</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="28">
-        <v>0</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="39">
+      <c r="B23" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="49">
+        <v>0</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="28">
-        <v>0</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="39">
+      <c r="B24" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="49">
+        <v>0</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="28">
-        <v>0</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="39">
+      <c r="B25" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="49">
+        <v>0</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="28">
-        <v>0</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="39">
+      <c r="B26" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="49">
+        <v>0</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="28">
-        <v>0</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="39">
+      <c r="B27" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="49">
+        <v>0</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="39">
+      <c r="B28" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="49">
+        <v>0</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="28">
-        <v>0</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="39">
+      <c r="B29" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="49">
+        <v>0</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="E30" s="69" t="s">
         <v>53</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62">
+      <c r="B31" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72">
         <f>C8+E8+E15+E19+SUM(C20:C29) + SUM(E20:E29)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="63"/>
+      <c r="E31" s="73"/>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="54"/>
+      <c r="B32" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
+      <c r="B33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-    </row>
-    <row r="35" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="69"/>
+      <c r="E35" s="23"/>
     </row>
   </sheetData>
+  <sheetProtection password="CABF" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B1:E1"/>
@@ -1623,6 +1595,12 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
